--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9807A08-D9C2-4E7A-AADD-E3F03CDC98D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C84E8-68F4-F248-9059-67A360545B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1881" sheetId="1" r:id="rId1"/>
+    <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
-    <sheet name="1940" sheetId="4" r:id="rId3"/>
+    <sheet name="1940Survey" sheetId="4" r:id="rId3"/>
     <sheet name="1940notes" sheetId="3" r:id="rId4"/>
+    <sheet name="1880Metadata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -358,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="149">
   <si>
     <t>Survey_type</t>
   </si>
@@ -802,6 +803,9 @@
   </si>
   <si>
     <t xml:space="preserve">Both mountainous and prarie land. Good bunch and gramma grass, well adapted for stock grazing for which it is exclusively used. </t>
+  </si>
+  <si>
+    <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
   </si>
 </sst>
 </file>
@@ -1215,23 +1219,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628BC84E-DFDE-4275-B376-83D23A677231}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" customWidth="1"/>
-    <col min="13" max="13" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1307,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +1474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2671,7 +2673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2986,16 +2988,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C3995-1950-4440-BC80-69FD86726421}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="142.44140625" customWidth="1"/>
+    <col min="1" max="1" width="142.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3009,24 +3011,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D970D903-87C1-4CBB-AD88-E8B5F1DA049C}">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" customWidth="1"/>
-    <col min="9" max="9" width="80.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="80.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -5382,24 +5382,42 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="155" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B786C9B7-1FEF-354D-B740-E9FEDE77BB5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C84E8-68F4-F248-9059-67A360545B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F017CD-DB19-4AA2-A643-869D4315FA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="150">
   <si>
     <t>Survey_type</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
+  </si>
+  <si>
+    <t>Surveyed in 1940</t>
   </si>
 </sst>
 </file>
@@ -1219,21 +1222,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628BC84E-DFDE-4275-B376-83D23A677231}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" customWidth="1"/>
+    <col min="12" max="12" width="27.109375" customWidth="1"/>
+    <col min="13" max="13" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1349,6 +1354,9 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
       <c r="I3" t="s">
         <v>134</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1372,6 +1380,9 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
       <c r="I4" t="s">
         <v>134</v>
       </c>
@@ -1382,7 +1393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1395,6 +1406,9 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
       <c r="I5" t="s">
         <v>134</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1418,6 +1432,9 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
       <c r="I6" t="s">
         <v>134</v>
       </c>
@@ -1428,7 +1445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1441,6 +1458,9 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
       <c r="I7" t="s">
         <v>134</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1464,6 +1484,9 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
       <c r="I8" t="s">
         <v>134</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1487,6 +1510,9 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
       <c r="I9" t="s">
         <v>134</v>
       </c>
@@ -1497,7 +1523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1510,6 +1536,9 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
       <c r="I10" t="s">
         <v>134</v>
       </c>
@@ -1520,7 +1549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1533,6 +1562,9 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
       <c r="I11" t="s">
         <v>134</v>
       </c>
@@ -1543,7 +1575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1556,6 +1588,9 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
       <c r="I12" t="s">
         <v>134</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1579,6 +1614,9 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
       <c r="I13" t="s">
         <v>134</v>
       </c>
@@ -1589,7 +1627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1653,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1628,6 +1666,9 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
       <c r="I15" t="s">
         <v>134</v>
       </c>
@@ -1638,7 +1679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1651,6 +1692,9 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
       <c r="I16" t="s">
         <v>134</v>
       </c>
@@ -1661,7 +1705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1674,6 +1718,9 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
       <c r="I17" t="s">
         <v>134</v>
       </c>
@@ -1684,7 +1731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1697,6 +1744,9 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
       <c r="I18" t="s">
         <v>134</v>
       </c>
@@ -1707,7 +1757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1720,6 +1770,9 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
       <c r="I19" t="s">
         <v>134</v>
       </c>
@@ -1730,7 +1783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1743,6 +1796,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
       <c r="I20" t="s">
         <v>134</v>
       </c>
@@ -1753,7 +1809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1766,6 +1822,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
       <c r="I21" t="s">
         <v>134</v>
       </c>
@@ -1776,7 +1835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1789,6 +1848,9 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
       <c r="I22" t="s">
         <v>134</v>
       </c>
@@ -1799,7 +1861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1812,6 +1874,9 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
       <c r="I23" t="s">
         <v>134</v>
       </c>
@@ -1822,7 +1887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1835,6 +1900,9 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
       <c r="I24" t="s">
         <v>134</v>
       </c>
@@ -1845,7 +1913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1858,6 +1926,9 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
       <c r="I25" t="s">
         <v>134</v>
       </c>
@@ -1868,7 +1939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1881,6 +1952,9 @@
       <c r="D26" t="s">
         <v>22</v>
       </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
       <c r="I26" t="s">
         <v>134</v>
       </c>
@@ -1891,7 +1965,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1904,6 +1978,9 @@
       <c r="D27" t="s">
         <v>22</v>
       </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
       <c r="I27" t="s">
         <v>134</v>
       </c>
@@ -1914,7 +1991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1927,6 +2004,9 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
       <c r="I28" t="s">
         <v>134</v>
       </c>
@@ -1937,7 +2017,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1950,6 +2030,9 @@
       <c r="D29" t="s">
         <v>22</v>
       </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
       <c r="I29" t="s">
         <v>134</v>
       </c>
@@ -1960,7 +2043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1973,6 +2056,9 @@
       <c r="D30" t="s">
         <v>22</v>
       </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
       <c r="I30" t="s">
         <v>134</v>
       </c>
@@ -1983,7 +2069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1996,6 +2082,9 @@
       <c r="D31" t="s">
         <v>22</v>
       </c>
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
       <c r="I31" t="s">
         <v>134</v>
       </c>
@@ -2006,7 +2095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2019,6 +2108,9 @@
       <c r="D32" t="s">
         <v>22</v>
       </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
       <c r="I32" t="s">
         <v>134</v>
       </c>
@@ -2029,7 +2121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2042,6 +2134,9 @@
       <c r="D33" t="s">
         <v>22</v>
       </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
       <c r="I33" t="s">
         <v>134</v>
       </c>
@@ -2052,7 +2147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2065,6 +2160,9 @@
       <c r="D34" t="s">
         <v>22</v>
       </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
       <c r="I34" t="s">
         <v>134</v>
       </c>
@@ -2075,7 +2173,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2088,6 +2186,9 @@
       <c r="D35" t="s">
         <v>22</v>
       </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
       <c r="I35" t="s">
         <v>134</v>
       </c>
@@ -2098,7 +2199,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2111,6 +2212,9 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
       <c r="I36" t="s">
         <v>135</v>
       </c>
@@ -2121,7 +2225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2134,6 +2238,9 @@
       <c r="D37" t="s">
         <v>22</v>
       </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
       <c r="I37" t="s">
         <v>142</v>
       </c>
@@ -2144,7 +2251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2157,6 +2264,9 @@
       <c r="D38" t="s">
         <v>22</v>
       </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
       <c r="I38" t="s">
         <v>135</v>
       </c>
@@ -2167,7 +2277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2180,6 +2290,9 @@
       <c r="D39" t="s">
         <v>22</v>
       </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
       <c r="I39" t="s">
         <v>134</v>
       </c>
@@ -2190,7 +2303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2203,6 +2316,9 @@
       <c r="D40" t="s">
         <v>22</v>
       </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
       <c r="I40" t="s">
         <v>134</v>
       </c>
@@ -2213,7 +2329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2226,6 +2342,9 @@
       <c r="D41" t="s">
         <v>22</v>
       </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
       <c r="I41" t="s">
         <v>134</v>
       </c>
@@ -2236,7 +2355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2249,6 +2368,9 @@
       <c r="D42" t="s">
         <v>22</v>
       </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
       <c r="I42" t="s">
         <v>134</v>
       </c>
@@ -2259,7 +2381,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2272,6 +2394,9 @@
       <c r="D43" t="s">
         <v>22</v>
       </c>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
       <c r="I43" t="s">
         <v>134</v>
       </c>
@@ -2282,7 +2407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2295,6 +2420,9 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
       <c r="I44" t="s">
         <v>134</v>
       </c>
@@ -2305,7 +2433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -2318,6 +2446,9 @@
       <c r="D45" t="s">
         <v>22</v>
       </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
       <c r="I45" t="s">
         <v>134</v>
       </c>
@@ -2328,7 +2459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2341,6 +2472,9 @@
       <c r="D46" t="s">
         <v>22</v>
       </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
       <c r="I46" t="s">
         <v>134</v>
       </c>
@@ -2351,7 +2485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2364,6 +2498,9 @@
       <c r="D47" t="s">
         <v>22</v>
       </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
       <c r="I47" t="s">
         <v>135</v>
       </c>
@@ -2374,7 +2511,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2387,6 +2524,9 @@
       <c r="D48" t="s">
         <v>22</v>
       </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
       <c r="I48" t="s">
         <v>135</v>
       </c>
@@ -2397,7 +2537,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2410,6 +2550,9 @@
       <c r="D49" t="s">
         <v>22</v>
       </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
       <c r="I49" t="s">
         <v>135</v>
       </c>
@@ -2420,7 +2563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2433,6 +2576,9 @@
       <c r="D50" t="s">
         <v>22</v>
       </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
       <c r="I50" t="s">
         <v>134</v>
       </c>
@@ -2443,7 +2589,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -2456,6 +2602,9 @@
       <c r="D51" t="s">
         <v>22</v>
       </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
       <c r="I51" t="s">
         <v>134</v>
       </c>
@@ -2466,7 +2615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -2479,6 +2628,9 @@
       <c r="D52" t="s">
         <v>22</v>
       </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
       <c r="I52" t="s">
         <v>134</v>
       </c>
@@ -2489,7 +2641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -2502,6 +2654,9 @@
       <c r="D53" t="s">
         <v>22</v>
       </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
       <c r="I53" t="s">
         <v>134</v>
       </c>
@@ -2512,7 +2667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -2525,6 +2680,9 @@
       <c r="D54" t="s">
         <v>22</v>
       </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
       <c r="I54" t="s">
         <v>134</v>
       </c>
@@ -2535,7 +2693,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -2548,6 +2706,9 @@
       <c r="D55" t="s">
         <v>22</v>
       </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
       <c r="I55" t="s">
         <v>134</v>
       </c>
@@ -2558,7 +2719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2571,6 +2732,9 @@
       <c r="D56" t="s">
         <v>22</v>
       </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
       <c r="I56" t="s">
         <v>134</v>
       </c>
@@ -2581,7 +2745,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2594,6 +2758,9 @@
       <c r="D57" t="s">
         <v>22</v>
       </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
       <c r="I57" t="s">
         <v>134</v>
       </c>
@@ -2604,7 +2771,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2617,6 +2784,9 @@
       <c r="D58" t="s">
         <v>22</v>
       </c>
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
       <c r="I58" t="s">
         <v>135</v>
       </c>
@@ -2627,7 +2797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2640,6 +2810,9 @@
       <c r="D59" t="s">
         <v>22</v>
       </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
       <c r="I59" t="s">
         <v>135</v>
       </c>
@@ -2650,7 +2823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2663,6 +2836,9 @@
       <c r="D60" t="s">
         <v>22</v>
       </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
       <c r="I60" t="s">
         <v>135</v>
       </c>
@@ -2673,7 +2849,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2686,6 +2862,9 @@
       <c r="D61" t="s">
         <v>22</v>
       </c>
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
       <c r="I61" t="s">
         <v>135</v>
       </c>
@@ -2696,7 +2875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2709,6 +2888,9 @@
       <c r="D62" t="s">
         <v>22</v>
       </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
       <c r="I62" t="s">
         <v>134</v>
       </c>
@@ -2719,7 +2901,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -2732,6 +2914,9 @@
       <c r="D63" t="s">
         <v>22</v>
       </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
       <c r="I63" t="s">
         <v>134</v>
       </c>
@@ -2742,7 +2927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -2755,6 +2940,9 @@
       <c r="D64" t="s">
         <v>22</v>
       </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
       <c r="I64" t="s">
         <v>134</v>
       </c>
@@ -2765,7 +2953,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2778,6 +2966,9 @@
       <c r="D65" t="s">
         <v>22</v>
       </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
       <c r="I65" t="s">
         <v>134</v>
       </c>
@@ -2788,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2801,6 +2992,9 @@
       <c r="D66" t="s">
         <v>22</v>
       </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
       <c r="I66" t="s">
         <v>134</v>
       </c>
@@ -2811,7 +3005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2824,6 +3018,9 @@
       <c r="D67" t="s">
         <v>22</v>
       </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
       <c r="I67" t="s">
         <v>134</v>
       </c>
@@ -2834,7 +3031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -2847,6 +3044,9 @@
       <c r="D68" t="s">
         <v>22</v>
       </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
       <c r="I68" t="s">
         <v>134</v>
       </c>
@@ -2857,7 +3057,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2870,6 +3070,9 @@
       <c r="D69" t="s">
         <v>22</v>
       </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
       <c r="I69" t="s">
         <v>134</v>
       </c>
@@ -2880,7 +3083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2893,6 +3096,9 @@
       <c r="D70" t="s">
         <v>22</v>
       </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
       <c r="I70" t="s">
         <v>134</v>
       </c>
@@ -2903,7 +3109,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2916,6 +3122,9 @@
       <c r="D71" t="s">
         <v>22</v>
       </c>
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
       <c r="I71" t="s">
         <v>134</v>
       </c>
@@ -2926,7 +3135,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2939,6 +3148,9 @@
       <c r="D72" t="s">
         <v>22</v>
       </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
       <c r="I72" t="s">
         <v>134</v>
       </c>
@@ -2949,7 +3161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2961,6 +3173,9 @@
       </c>
       <c r="D73" t="s">
         <v>22</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
       </c>
       <c r="I73" t="s">
         <v>134</v>
@@ -2992,12 +3207,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.5" customWidth="1"/>
+    <col min="1" max="1" width="142.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3013,20 +3228,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" customWidth="1"/>
-    <col min="9" max="9" width="80.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="80.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3315,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3187,7 +3402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3216,7 +3431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3303,7 +3518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +3605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3419,7 +3634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3448,7 +3663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +3779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3593,7 +3808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3622,7 +3837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3651,7 +3866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3709,7 +3924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +3953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3796,7 +4011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +4040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +4069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3883,7 +4098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3912,7 +4127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +4156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +4185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -3999,7 +4214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4057,7 +4272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4086,7 +4301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4115,7 +4330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -4144,7 +4359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4173,7 +4388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4202,7 +4417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4318,7 +4533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4376,7 +4591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4405,7 +4620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4434,7 +4649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4521,7 +4736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4550,7 +4765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4579,7 +4794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4608,7 +4823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -4637,7 +4852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -4724,7 +4939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4753,7 +4968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -4782,7 +4997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +5026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4840,7 +5055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4869,7 +5084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -4898,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -4927,7 +5142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -4956,7 +5171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +5200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5014,7 +5229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5043,7 +5258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5072,7 +5287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5101,7 +5316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5130,7 +5345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5159,7 +5374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5188,7 +5403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -5217,7 +5432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -5246,7 +5461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5275,7 +5490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +5519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -5333,7 +5548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -5382,22 +5597,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="155" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -5409,15 +5624,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B786C9B7-1FEF-354D-B740-E9FEDE77BB5E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F017CD-DB19-4AA2-A643-869D4315FA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D99791-40B8-4BB9-B4DC-F7EFDD6FF9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="150">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628BC84E-DFDE-4275-B376-83D23A677231}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,6 +1357,9 @@
       <c r="E3" t="s">
         <v>137</v>
       </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
       <c r="I3" t="s">
         <v>134</v>
       </c>
@@ -1383,6 +1386,9 @@
       <c r="E4" t="s">
         <v>137</v>
       </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
       <c r="I4" t="s">
         <v>134</v>
       </c>
@@ -1409,6 +1415,9 @@
       <c r="E5" t="s">
         <v>137</v>
       </c>
+      <c r="G5" t="s">
+        <v>136</v>
+      </c>
       <c r="I5" t="s">
         <v>134</v>
       </c>
@@ -1435,6 +1444,9 @@
       <c r="E6" t="s">
         <v>137</v>
       </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
       <c r="I6" t="s">
         <v>134</v>
       </c>
@@ -1461,6 +1473,9 @@
       <c r="E7" t="s">
         <v>137</v>
       </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
       <c r="I7" t="s">
         <v>134</v>
       </c>
@@ -1487,6 +1502,9 @@
       <c r="E8" t="s">
         <v>137</v>
       </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
       <c r="I8" t="s">
         <v>134</v>
       </c>
@@ -1513,6 +1531,9 @@
       <c r="E9" t="s">
         <v>137</v>
       </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
       <c r="I9" t="s">
         <v>134</v>
       </c>
@@ -1539,6 +1560,9 @@
       <c r="E10" t="s">
         <v>137</v>
       </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
       <c r="I10" t="s">
         <v>134</v>
       </c>
@@ -1565,6 +1589,9 @@
       <c r="E11" t="s">
         <v>137</v>
       </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
       <c r="I11" t="s">
         <v>134</v>
       </c>
@@ -1591,6 +1618,9 @@
       <c r="E12" t="s">
         <v>137</v>
       </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
       <c r="I12" t="s">
         <v>134</v>
       </c>
@@ -1617,6 +1647,9 @@
       <c r="E13" t="s">
         <v>137</v>
       </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
       <c r="I13" t="s">
         <v>134</v>
       </c>
@@ -1643,6 +1676,9 @@
       <c r="E14" t="s">
         <v>105</v>
       </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
       <c r="I14" t="s">
         <v>139</v>
       </c>
@@ -1669,6 +1705,9 @@
       <c r="E15" t="s">
         <v>137</v>
       </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
       <c r="I15" t="s">
         <v>134</v>
       </c>
@@ -1695,6 +1734,9 @@
       <c r="E16" t="s">
         <v>137</v>
       </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
       <c r="I16" t="s">
         <v>134</v>
       </c>
@@ -1721,6 +1763,9 @@
       <c r="E17" t="s">
         <v>137</v>
       </c>
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
       <c r="I17" t="s">
         <v>134</v>
       </c>
@@ -1747,6 +1792,9 @@
       <c r="E18" t="s">
         <v>137</v>
       </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
       <c r="I18" t="s">
         <v>134</v>
       </c>
@@ -1773,6 +1821,9 @@
       <c r="E19" t="s">
         <v>137</v>
       </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
       <c r="I19" t="s">
         <v>134</v>
       </c>
@@ -1799,6 +1850,9 @@
       <c r="E20" t="s">
         <v>137</v>
       </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
       <c r="I20" t="s">
         <v>134</v>
       </c>
@@ -1825,6 +1879,9 @@
       <c r="E21" t="s">
         <v>137</v>
       </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
       <c r="I21" t="s">
         <v>134</v>
       </c>
@@ -1851,6 +1908,9 @@
       <c r="E22" t="s">
         <v>137</v>
       </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
       <c r="I22" t="s">
         <v>134</v>
       </c>
@@ -1877,6 +1937,9 @@
       <c r="E23" t="s">
         <v>137</v>
       </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
       <c r="I23" t="s">
         <v>134</v>
       </c>
@@ -1903,6 +1966,9 @@
       <c r="E24" t="s">
         <v>137</v>
       </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
       <c r="I24" t="s">
         <v>134</v>
       </c>
@@ -1929,6 +1995,9 @@
       <c r="E25" t="s">
         <v>137</v>
       </c>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
       <c r="I25" t="s">
         <v>134</v>
       </c>
@@ -1955,6 +2024,9 @@
       <c r="E26" t="s">
         <v>137</v>
       </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
       <c r="I26" t="s">
         <v>134</v>
       </c>
@@ -1981,6 +2053,9 @@
       <c r="E27" t="s">
         <v>137</v>
       </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
       <c r="I27" t="s">
         <v>134</v>
       </c>
@@ -2007,6 +2082,9 @@
       <c r="E28" t="s">
         <v>137</v>
       </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
       <c r="I28" t="s">
         <v>134</v>
       </c>
@@ -2033,6 +2111,9 @@
       <c r="E29" t="s">
         <v>137</v>
       </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
       <c r="I29" t="s">
         <v>134</v>
       </c>
@@ -2059,6 +2140,9 @@
       <c r="E30" t="s">
         <v>137</v>
       </c>
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
       <c r="I30" t="s">
         <v>134</v>
       </c>
@@ -2085,6 +2169,9 @@
       <c r="E31" t="s">
         <v>137</v>
       </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
       <c r="I31" t="s">
         <v>134</v>
       </c>
@@ -2111,6 +2198,9 @@
       <c r="E32" t="s">
         <v>137</v>
       </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
       <c r="I32" t="s">
         <v>134</v>
       </c>
@@ -2137,6 +2227,9 @@
       <c r="E33" t="s">
         <v>137</v>
       </c>
+      <c r="G33" t="s">
+        <v>136</v>
+      </c>
       <c r="I33" t="s">
         <v>134</v>
       </c>
@@ -2163,6 +2256,9 @@
       <c r="E34" t="s">
         <v>137</v>
       </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
       <c r="I34" t="s">
         <v>134</v>
       </c>
@@ -2189,6 +2285,9 @@
       <c r="E35" t="s">
         <v>137</v>
       </c>
+      <c r="G35" t="s">
+        <v>136</v>
+      </c>
       <c r="I35" t="s">
         <v>134</v>
       </c>
@@ -2215,6 +2314,9 @@
       <c r="E36" t="s">
         <v>137</v>
       </c>
+      <c r="G36" t="s">
+        <v>136</v>
+      </c>
       <c r="I36" t="s">
         <v>135</v>
       </c>
@@ -2241,6 +2343,9 @@
       <c r="E37" t="s">
         <v>137</v>
       </c>
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
       <c r="I37" t="s">
         <v>142</v>
       </c>
@@ -2267,6 +2372,9 @@
       <c r="E38" t="s">
         <v>137</v>
       </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
       <c r="I38" t="s">
         <v>135</v>
       </c>
@@ -2293,6 +2401,9 @@
       <c r="E39" t="s">
         <v>137</v>
       </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
       <c r="I39" t="s">
         <v>134</v>
       </c>
@@ -2319,6 +2430,9 @@
       <c r="E40" t="s">
         <v>137</v>
       </c>
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
       <c r="I40" t="s">
         <v>134</v>
       </c>
@@ -2345,6 +2459,9 @@
       <c r="E41" t="s">
         <v>137</v>
       </c>
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
       <c r="I41" t="s">
         <v>134</v>
       </c>
@@ -2371,6 +2488,9 @@
       <c r="E42" t="s">
         <v>137</v>
       </c>
+      <c r="G42" t="s">
+        <v>136</v>
+      </c>
       <c r="I42" t="s">
         <v>134</v>
       </c>
@@ -2397,6 +2517,9 @@
       <c r="E43" t="s">
         <v>137</v>
       </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
       <c r="I43" t="s">
         <v>134</v>
       </c>
@@ -2423,6 +2546,9 @@
       <c r="E44" t="s">
         <v>137</v>
       </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
       <c r="I44" t="s">
         <v>134</v>
       </c>
@@ -2449,6 +2575,9 @@
       <c r="E45" t="s">
         <v>137</v>
       </c>
+      <c r="G45" t="s">
+        <v>136</v>
+      </c>
       <c r="I45" t="s">
         <v>134</v>
       </c>
@@ -2475,6 +2604,9 @@
       <c r="E46" t="s">
         <v>137</v>
       </c>
+      <c r="G46" t="s">
+        <v>136</v>
+      </c>
       <c r="I46" t="s">
         <v>134</v>
       </c>
@@ -2501,6 +2633,9 @@
       <c r="E47" t="s">
         <v>137</v>
       </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
       <c r="I47" t="s">
         <v>135</v>
       </c>
@@ -2527,6 +2662,9 @@
       <c r="E48" t="s">
         <v>137</v>
       </c>
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
       <c r="I48" t="s">
         <v>135</v>
       </c>
@@ -2553,6 +2691,9 @@
       <c r="E49" t="s">
         <v>137</v>
       </c>
+      <c r="G49" t="s">
+        <v>136</v>
+      </c>
       <c r="I49" t="s">
         <v>135</v>
       </c>
@@ -2579,6 +2720,9 @@
       <c r="E50" t="s">
         <v>137</v>
       </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
       <c r="I50" t="s">
         <v>134</v>
       </c>
@@ -2605,6 +2749,9 @@
       <c r="E51" t="s">
         <v>137</v>
       </c>
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
       <c r="I51" t="s">
         <v>134</v>
       </c>
@@ -2631,6 +2778,9 @@
       <c r="E52" t="s">
         <v>137</v>
       </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
       <c r="I52" t="s">
         <v>134</v>
       </c>
@@ -2657,6 +2807,9 @@
       <c r="E53" t="s">
         <v>137</v>
       </c>
+      <c r="G53" t="s">
+        <v>136</v>
+      </c>
       <c r="I53" t="s">
         <v>134</v>
       </c>
@@ -2683,6 +2836,9 @@
       <c r="E54" t="s">
         <v>137</v>
       </c>
+      <c r="G54" t="s">
+        <v>136</v>
+      </c>
       <c r="I54" t="s">
         <v>134</v>
       </c>
@@ -2709,6 +2865,9 @@
       <c r="E55" t="s">
         <v>137</v>
       </c>
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
       <c r="I55" t="s">
         <v>134</v>
       </c>
@@ -2735,6 +2894,9 @@
       <c r="E56" t="s">
         <v>137</v>
       </c>
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
       <c r="I56" t="s">
         <v>134</v>
       </c>
@@ -2761,6 +2923,9 @@
       <c r="E57" t="s">
         <v>137</v>
       </c>
+      <c r="G57" t="s">
+        <v>136</v>
+      </c>
       <c r="I57" t="s">
         <v>134</v>
       </c>
@@ -2787,6 +2952,9 @@
       <c r="E58" t="s">
         <v>137</v>
       </c>
+      <c r="G58" t="s">
+        <v>136</v>
+      </c>
       <c r="I58" t="s">
         <v>135</v>
       </c>
@@ -2813,6 +2981,9 @@
       <c r="E59" t="s">
         <v>137</v>
       </c>
+      <c r="G59" t="s">
+        <v>136</v>
+      </c>
       <c r="I59" t="s">
         <v>135</v>
       </c>
@@ -2839,6 +3010,9 @@
       <c r="E60" t="s">
         <v>137</v>
       </c>
+      <c r="G60" t="s">
+        <v>136</v>
+      </c>
       <c r="I60" t="s">
         <v>135</v>
       </c>
@@ -2865,6 +3039,9 @@
       <c r="E61" t="s">
         <v>137</v>
       </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
       <c r="I61" t="s">
         <v>135</v>
       </c>
@@ -2891,6 +3068,9 @@
       <c r="E62" t="s">
         <v>137</v>
       </c>
+      <c r="G62" t="s">
+        <v>136</v>
+      </c>
       <c r="I62" t="s">
         <v>134</v>
       </c>
@@ -2917,6 +3097,9 @@
       <c r="E63" t="s">
         <v>137</v>
       </c>
+      <c r="G63" t="s">
+        <v>136</v>
+      </c>
       <c r="I63" t="s">
         <v>134</v>
       </c>
@@ -2943,6 +3126,9 @@
       <c r="E64" t="s">
         <v>137</v>
       </c>
+      <c r="G64" t="s">
+        <v>136</v>
+      </c>
       <c r="I64" t="s">
         <v>134</v>
       </c>
@@ -2969,6 +3155,9 @@
       <c r="E65" t="s">
         <v>137</v>
       </c>
+      <c r="G65" t="s">
+        <v>136</v>
+      </c>
       <c r="I65" t="s">
         <v>134</v>
       </c>
@@ -2995,6 +3184,9 @@
       <c r="E66" t="s">
         <v>137</v>
       </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
       <c r="I66" t="s">
         <v>134</v>
       </c>
@@ -3021,6 +3213,9 @@
       <c r="E67" t="s">
         <v>137</v>
       </c>
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
       <c r="I67" t="s">
         <v>134</v>
       </c>
@@ -3047,6 +3242,9 @@
       <c r="E68" t="s">
         <v>137</v>
       </c>
+      <c r="G68" t="s">
+        <v>136</v>
+      </c>
       <c r="I68" t="s">
         <v>134</v>
       </c>
@@ -3073,6 +3271,9 @@
       <c r="E69" t="s">
         <v>137</v>
       </c>
+      <c r="G69" t="s">
+        <v>136</v>
+      </c>
       <c r="I69" t="s">
         <v>134</v>
       </c>
@@ -3099,6 +3300,9 @@
       <c r="E70" t="s">
         <v>137</v>
       </c>
+      <c r="G70" t="s">
+        <v>136</v>
+      </c>
       <c r="I70" t="s">
         <v>134</v>
       </c>
@@ -3125,6 +3329,9 @@
       <c r="E71" t="s">
         <v>137</v>
       </c>
+      <c r="G71" t="s">
+        <v>136</v>
+      </c>
       <c r="I71" t="s">
         <v>134</v>
       </c>
@@ -3151,6 +3358,9 @@
       <c r="E72" t="s">
         <v>137</v>
       </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
       <c r="I72" t="s">
         <v>134</v>
       </c>
@@ -3176,6 +3386,9 @@
       </c>
       <c r="E73" t="s">
         <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>136</v>
       </c>
       <c r="I73" t="s">
         <v>134</v>
@@ -3226,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D970D903-87C1-4CBB-AD88-E8B5F1DA049C}">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D99791-40B8-4BB9-B4DC-F7EFDD6FF9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64353C-7558-4BA9-B744-916784B5DE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="154">
   <si>
     <t>Survey_type</t>
   </si>
@@ -439,42 +439,6 @@
     <t>31-09-1940</t>
   </si>
   <si>
-    <t>31-10-31-W</t>
-  </si>
-  <si>
-    <t>31-10-30-W</t>
-  </si>
-  <si>
-    <t>31-10-19-W</t>
-  </si>
-  <si>
-    <t>31-10-18-W</t>
-  </si>
-  <si>
-    <t>31-10-07-W</t>
-  </si>
-  <si>
-    <t>31-10-06-W</t>
-  </si>
-  <si>
-    <t>32-09-36-S</t>
-  </si>
-  <si>
-    <t>32-09-35-S</t>
-  </si>
-  <si>
-    <t>32-09-34-S</t>
-  </si>
-  <si>
-    <t>32-09-33-S</t>
-  </si>
-  <si>
-    <t>32-09-32-S</t>
-  </si>
-  <si>
-    <t>32-09-31-S</t>
-  </si>
-  <si>
     <t>31-09-06-W</t>
   </si>
   <si>
@@ -682,15 +646,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>Land slightly rolling. Undergrowth very small sage.</t>
-  </si>
-  <si>
-    <t>Land slightly rolling. Undergrowth small sage</t>
-  </si>
-  <si>
-    <t>Land slightly rolling. Undergrowth some small sage</t>
-  </si>
-  <si>
     <t>Land rolling. Undergrowth low sage</t>
   </si>
   <si>
@@ -775,9 +730,6 @@
     <t>absent</t>
   </si>
   <si>
-    <t>September 2 1881</t>
-  </si>
-  <si>
     <t>Land rolling, good grass, sage brush</t>
   </si>
   <si>
@@ -809,6 +761,66 @@
   </si>
   <si>
     <t>Surveyed in 1940</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>August 25-September 1 1881</t>
+  </si>
+  <si>
+    <t>31-09-36-S</t>
+  </si>
+  <si>
+    <t>30-09-1881</t>
+  </si>
+  <si>
+    <t>31-09-35-S</t>
+  </si>
+  <si>
+    <t>Land rough and rolling and mountainous, good grass</t>
+  </si>
+  <si>
+    <t>31-09-34-S</t>
+  </si>
+  <si>
+    <t>31-09-33-S</t>
+  </si>
+  <si>
+    <t>31-09-32-S</t>
+  </si>
+  <si>
+    <t>30-09-1942</t>
+  </si>
+  <si>
+    <t>Land steep side of San Antone Mountain. Timber, aspen thicket and some young fir. Underground ground juniper and oak abd other kinds, name unknown</t>
+  </si>
+  <si>
+    <t>Names uknown….</t>
+  </si>
+  <si>
+    <t>June 14-July 23 1942</t>
+  </si>
+  <si>
+    <t>Land steep side of San Antone Mountain. Timber, aspen thicket and some young fir. Underground ground juniper and oak</t>
+  </si>
+  <si>
+    <t>Ground juniper first</t>
+  </si>
+  <si>
+    <t>Land steep mountainous. Timber, pine, oak and aspen. Undergrowth sage and oak</t>
+  </si>
+  <si>
+    <t>Aspen first</t>
+  </si>
+  <si>
+    <t>Land rolling and mountainous, no timber. Undergrowth sage and spanish dagger</t>
+  </si>
+  <si>
+    <t>Land rolling, no timber. Undergrowth, sage and spanish dagger</t>
+  </si>
+  <si>
+    <t>Land rolling, no timber. Undergrowth, sage.</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628BC84E-DFDE-4275-B376-83D23A677231}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,28 +1329,28 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -1346,28 +1358,28 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1375,28 +1387,28 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -1404,28 +1416,28 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -1433,28 +1445,28 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -1462,28 +1474,28 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -1491,28 +1503,28 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -1520,28 +1532,28 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1549,28 +1561,28 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -1578,28 +1590,28 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -1607,28 +1619,28 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -1636,28 +1648,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
@@ -1665,28 +1677,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -1694,28 +1706,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -1723,28 +1735,28 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1752,28 +1764,28 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1781,28 +1793,28 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1810,28 +1822,28 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1839,28 +1851,28 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1868,28 +1880,28 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1897,28 +1909,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1926,28 +1938,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1955,28 +1967,28 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1984,28 +1996,28 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2013,28 +2025,28 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2042,28 +2054,28 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2071,28 +2083,28 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2100,28 +2112,28 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2129,28 +2141,28 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2158,28 +2170,28 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2187,28 +2199,28 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2216,28 +2228,28 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2245,28 +2257,28 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2274,28 +2286,28 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2303,28 +2315,28 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2332,28 +2344,28 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L37" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2361,28 +2373,28 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2390,28 +2402,28 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2419,28 +2431,28 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2448,28 +2460,28 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2477,28 +2489,28 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2506,28 +2518,28 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L43" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2535,28 +2547,28 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2564,28 +2576,28 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2593,28 +2605,28 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2622,28 +2634,28 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L47" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2651,28 +2663,28 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2680,28 +2692,28 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L49" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2709,28 +2721,28 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2738,28 +2750,28 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2767,28 +2779,28 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2796,28 +2808,28 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2825,28 +2837,28 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L54" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2854,28 +2866,28 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I55" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L55" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2883,28 +2895,28 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L56" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2912,28 +2924,28 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J57" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2941,28 +2953,28 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2970,28 +2982,28 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I59" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J59" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L59" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2999,28 +3011,28 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L60" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3028,28 +3040,28 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J61" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3057,28 +3069,28 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3086,28 +3098,28 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I63" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L63" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3115,28 +3127,28 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I64" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3144,28 +3156,28 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L65" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3173,28 +3185,28 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L66" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3202,28 +3214,28 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L67" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3231,28 +3243,28 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I68" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L68" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3260,28 +3272,28 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I69" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L69" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3289,28 +3301,28 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3318,28 +3330,28 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L71" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3347,28 +3359,28 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I72" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J72" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L72" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3376,31 +3388,34 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U79">
+    <sortCondition ref="C55"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -3427,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3437,9 +3452,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D970D903-87C1-4CBB-AD88-E8B5F1DA049C}">
-  <dimension ref="A1:AD79"/>
+  <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3536,19 +3553,19 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -3565,19 +3582,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -3594,19 +3611,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -3623,19 +3640,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -3652,19 +3669,19 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -3681,19 +3698,19 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -3710,19 +3727,19 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -3739,19 +3756,19 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -3768,19 +3785,19 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -3797,19 +3814,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -3826,19 +3843,19 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -3855,19 +3872,19 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -3884,19 +3901,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -3913,19 +3930,19 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -3942,19 +3959,19 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -3971,19 +3988,19 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -4000,19 +4017,19 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -4029,19 +4046,19 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -4058,19 +4075,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -4087,19 +4104,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -4116,19 +4133,19 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -4145,19 +4162,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -4174,19 +4191,19 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
@@ -4203,19 +4220,19 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -4232,19 +4249,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -4261,19 +4278,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -4290,19 +4307,19 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
@@ -4319,19 +4336,19 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
         <v>23</v>
@@ -4348,19 +4365,19 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
         <v>23</v>
@@ -4377,19 +4394,19 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
         <v>23</v>
@@ -4406,19 +4423,19 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -4435,19 +4452,19 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -4464,19 +4481,19 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
         <v>23</v>
@@ -4493,19 +4510,19 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -4522,19 +4539,19 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
@@ -4551,19 +4568,19 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
@@ -4580,19 +4597,19 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
@@ -4609,19 +4626,19 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
@@ -4638,19 +4655,19 @@
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
@@ -4667,19 +4684,19 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -4696,19 +4713,19 @@
         <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -4725,19 +4742,19 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -4754,19 +4771,19 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -4783,19 +4800,19 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -4812,19 +4829,19 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -4841,19 +4858,19 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -4870,19 +4887,19 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -4899,19 +4916,19 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -4928,19 +4945,19 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -4957,19 +4974,19 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -4986,19 +5003,19 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -5015,19 +5032,19 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
@@ -5044,19 +5061,19 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
@@ -5073,19 +5090,19 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
@@ -5102,19 +5119,19 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
       </c>
       <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s">
         <v>105</v>
-      </c>
-      <c r="G56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I56" t="s">
-        <v>122</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -5131,19 +5148,19 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
         <v>106</v>
-      </c>
-      <c r="I57" t="s">
-        <v>115</v>
       </c>
       <c r="J57" t="s">
         <v>23</v>
@@ -5160,19 +5177,19 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J58" t="s">
         <v>23</v>
@@ -5189,19 +5206,19 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
@@ -5218,19 +5235,19 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -5247,19 +5264,19 @@
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -5276,19 +5293,19 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
@@ -5305,19 +5322,19 @@
         <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -5334,19 +5351,19 @@
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J64" t="s">
         <v>23</v>
@@ -5363,19 +5380,19 @@
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
@@ -5392,19 +5409,19 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s">
         <v>23</v>
@@ -5421,19 +5438,19 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s">
         <v>23</v>
@@ -5447,28 +5464,31 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="J68" t="s">
         <v>23</v>
       </c>
+      <c r="K68" t="s">
+        <v>145</v>
+      </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5476,28 +5496,31 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="J69" t="s">
         <v>23</v>
       </c>
+      <c r="K69" t="s">
+        <v>148</v>
+      </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5505,28 +5528,31 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="J70" t="s">
         <v>23</v>
       </c>
+      <c r="K70" t="s">
+        <v>150</v>
+      </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5534,28 +5560,28 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="J71" t="s">
         <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5563,28 +5589,28 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I72" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="J72" t="s">
         <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5592,205 +5618,34 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="J73" t="s">
         <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" t="s">
-        <v>106</v>
-      </c>
-      <c r="I74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" t="s">
-        <v>106</v>
-      </c>
-      <c r="I75" t="s">
-        <v>115</v>
-      </c>
-      <c r="J75" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" t="s">
-        <v>106</v>
-      </c>
-      <c r="I76" t="s">
-        <v>115</v>
-      </c>
-      <c r="J76" t="s">
-        <v>23</v>
-      </c>
-      <c r="L76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" t="s">
-        <v>106</v>
-      </c>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-      <c r="J77" t="s">
-        <v>23</v>
-      </c>
-      <c r="L77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" t="s">
-        <v>115</v>
-      </c>
-      <c r="J78" t="s">
-        <v>23</v>
-      </c>
-      <c r="L78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-      <c r="J79" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U79">
+    <sortCondition ref="C43"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -5817,17 +5672,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5847,12 +5702,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D24302F-7B6E-4BB2-A4A5-5E2CB4C2DCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52434F47-27CB-4998-913D-9AB1A7282CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1881notes" sheetId="2" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="4" r:id="rId3"/>
     <sheet name="1940notes" sheetId="3" r:id="rId4"/>
-    <sheet name="2004Survey" sheetId="6" r:id="rId5"/>
+    <sheet name="2019Survey" sheetId="6" r:id="rId5"/>
     <sheet name="1880Metadata" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -5698,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2545A29-6325-479B-886F-2D91473C02F9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5782,7 +5782,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5870,7 +5870,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5914,7 +5914,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6134,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6189,7 +6189,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6233,7 +6233,7 @@
         <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6409,7 +6409,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,7 +6453,7 @@
         <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
         <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52434F47-27CB-4998-913D-9AB1A7282CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A6D077-FCD8-4FC4-BD1B-C3B0341458FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
@@ -5698,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2545A29-6325-479B-886F-2D91473C02F9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -5760,7 +5760,7 @@
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5826,7 +5826,7 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5903,7 +5903,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6057,7 +6057,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6178,7 +6178,7 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6343,7 +6343,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
         <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/T31R09_data.xlsx
+++ b/data/T31R09_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A6D077-FCD8-4FC4-BD1B-C3B0341458FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C122F6-FB7E-42EE-A469-77965ADDA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F3D5C120-CC7B-4BD8-9664-849BBBB6143C}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{53949D68-29C8-411B-9856-180387DC50B8}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{53949D68-29C8-411B-9856-180387DC50B8}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{62A18054-ED42-491A-B709-1E5617E4B9B4}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{62A18054-ED42-491A-B709-1E5617E4B9B4}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{B916BA3D-7057-4469-A26F-C210008937EE}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B916BA3D-7057-4469-A26F-C210008937EE}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{338B8102-9FF0-401D-BD29-183769AEE3A2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{338B8102-9FF0-401D-BD29-183769AEE3A2}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E2EE1721-DDB0-4D59-8E18-A52A0A18A2BD}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E2EE1721-DDB0-4D59-8E18-A52A0A18A2BD}">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="155">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1236,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628BC84E-DFDE-4275-B376-83D23A677231}">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,14 +1247,13 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,60 +1263,58 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1326,9 +1323,8 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1339,25 +1335,25 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
         <v>121</v>
       </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
       <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1368,25 +1364,25 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
         <v>121</v>
       </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
       <c r="I3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
+        <v>124</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1397,25 +1393,25 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
         <v>121</v>
       </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
       <c r="I4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1426,25 +1422,25 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
         <v>121</v>
       </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
       <c r="I5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K5" t="s">
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1455,25 +1451,25 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
       </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
       <c r="I6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1484,25 +1480,25 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
         <v>121</v>
       </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
       <c r="I7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1513,25 +1509,25 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
         <v>121</v>
       </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
       <c r="I8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1542,25 +1538,25 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
         <v>121</v>
       </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
       <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1571,25 +1567,25 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
         <v>121</v>
       </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
       <c r="I10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1600,25 +1596,25 @@
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
         <v>121</v>
       </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
       <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1629,25 +1625,25 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
       </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
       <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1658,25 +1654,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
         <v>121</v>
       </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
       <c r="I13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1687,25 +1683,25 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
         <v>121</v>
       </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
       <c r="I14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1716,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
         <v>121</v>
       </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
       <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1745,22 +1741,22 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
         <v>121</v>
       </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
       <c r="I16" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,22 +1770,22 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
         <v>121</v>
       </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
       <c r="I17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,22 +1799,22 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
         <v>121</v>
       </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
       <c r="I18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1832,22 +1828,22 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
         <v>121</v>
       </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
       <c r="I19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1861,22 +1857,22 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
         <v>121</v>
       </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
       <c r="I20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1890,22 +1886,22 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
         <v>121</v>
       </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
       <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K21" t="s">
+        <v>117</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1919,22 +1915,22 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
         <v>121</v>
       </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
       <c r="I22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K22" t="s">
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1948,22 +1944,22 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
         <v>121</v>
       </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
       <c r="I23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1977,22 +1973,22 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
         <v>121</v>
       </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
       <c r="I24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K24" t="s">
+        <v>117</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2006,22 +2002,22 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
         <v>121</v>
       </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
       <c r="I25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,22 +2031,22 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
         <v>121</v>
       </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
       <c r="I26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
       </c>
       <c r="L26" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2064,22 +2060,22 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
         <v>121</v>
       </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
       <c r="I27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K27" t="s">
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,22 +2089,22 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
         <v>121</v>
       </c>
+      <c r="H28" t="s">
+        <v>119</v>
+      </c>
       <c r="I28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2122,22 +2118,22 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
         <v>121</v>
       </c>
+      <c r="H29" t="s">
+        <v>119</v>
+      </c>
       <c r="I29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K29" t="s">
+        <v>117</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,22 +2147,22 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
         <v>121</v>
       </c>
+      <c r="H30" t="s">
+        <v>119</v>
+      </c>
       <c r="I30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
       </c>
       <c r="L30" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2180,22 +2176,22 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
         <v>121</v>
       </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
       <c r="I31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K31" t="s">
+        <v>117</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2209,22 +2205,22 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
         <v>121</v>
       </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
       <c r="I32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K32" t="s">
+        <v>117</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2238,22 +2234,22 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" t="s">
         <v>121</v>
       </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
       <c r="I33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K33" t="s">
+        <v>117</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2267,22 +2263,22 @@
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
         <v>121</v>
       </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
       <c r="I34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K34" t="s">
+        <v>117</v>
       </c>
       <c r="L34" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2296,22 +2292,22 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
         <v>121</v>
       </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
       <c r="I35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K35" t="s">
+        <v>117</v>
       </c>
       <c r="L35" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2325,22 +2321,22 @@
         <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
         <v>121</v>
       </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
       <c r="I36" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K36" t="s">
+        <v>117</v>
       </c>
       <c r="L36" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,22 +2350,22 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
         <v>121</v>
       </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
       <c r="I37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K37" t="s">
+        <v>117</v>
       </c>
       <c r="L37" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2383,22 +2379,22 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
         <v>121</v>
       </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
       <c r="I38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K38" t="s">
+        <v>117</v>
       </c>
       <c r="L38" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2412,22 +2408,22 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" t="s">
         <v>121</v>
       </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
       <c r="I39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
       </c>
       <c r="L39" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2441,22 +2437,22 @@
         <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
         <v>121</v>
       </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
       <c r="I40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K40" t="s">
+        <v>117</v>
       </c>
       <c r="L40" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2470,22 +2466,22 @@
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" t="s">
         <v>121</v>
       </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
       <c r="I41" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K41" t="s">
+        <v>129</v>
       </c>
       <c r="L41" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2499,22 +2495,22 @@
         <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
         <v>121</v>
       </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
       <c r="I42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K42" t="s">
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2528,22 +2524,22 @@
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
         <v>121</v>
       </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
       <c r="I43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>117</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2557,22 +2553,22 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
         <v>121</v>
       </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
       <c r="I44" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K44" t="s">
+        <v>117</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2586,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
         <v>121</v>
       </c>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
       <c r="I45" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>117</v>
       </c>
       <c r="L45" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2615,22 +2611,22 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
         <v>121</v>
       </c>
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
       <c r="I46" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>117</v>
       </c>
       <c r="L46" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2644,22 +2640,22 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
         <v>121</v>
       </c>
+      <c r="H47" t="s">
+        <v>119</v>
+      </c>
       <c r="I47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K47" t="s">
+        <v>117</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2673,22 +2669,22 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s">
         <v>121</v>
       </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
       <c r="I48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>117</v>
       </c>
       <c r="L48" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,22 +2698,22 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
         <v>121</v>
       </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
       <c r="I49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K49" t="s">
+        <v>117</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,22 +2727,22 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" t="s">
         <v>121</v>
       </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
       <c r="I50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K50" t="s">
+        <v>117</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,22 +2756,22 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" t="s">
         <v>121</v>
       </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
       <c r="I51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J51" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>117</v>
       </c>
       <c r="L51" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2789,22 +2785,22 @@
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" t="s">
         <v>121</v>
       </c>
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
       <c r="I52" t="s">
-        <v>119</v>
-      </c>
-      <c r="J52" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K52" t="s">
+        <v>117</v>
       </c>
       <c r="L52" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2818,22 +2814,22 @@
         <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" t="s">
         <v>121</v>
       </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
       <c r="I53" t="s">
-        <v>119</v>
-      </c>
-      <c r="J53" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>117</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2847,22 +2843,22 @@
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" t="s">
         <v>121</v>
       </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
       <c r="I54" t="s">
-        <v>126</v>
-      </c>
-      <c r="J54" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K54" t="s">
+        <v>117</v>
       </c>
       <c r="L54" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,22 +2872,22 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" t="s">
         <v>121</v>
       </c>
+      <c r="H55" t="s">
+        <v>120</v>
+      </c>
       <c r="I55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K55" t="s">
+        <v>117</v>
       </c>
       <c r="L55" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2905,22 +2901,22 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
         <v>121</v>
       </c>
+      <c r="H56" t="s">
+        <v>120</v>
+      </c>
       <c r="I56" t="s">
-        <v>120</v>
-      </c>
-      <c r="J56" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K56" t="s">
+        <v>117</v>
       </c>
       <c r="L56" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2934,22 +2930,22 @@
         <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
         <v>121</v>
       </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
       <c r="I57" t="s">
-        <v>120</v>
-      </c>
-      <c r="J57" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K57" t="s">
+        <v>117</v>
       </c>
       <c r="L57" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2963,22 +2959,22 @@
         <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" t="s">
         <v>121</v>
       </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
       <c r="I58" t="s">
-        <v>120</v>
-      </c>
-      <c r="J58" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K58" t="s">
+        <v>117</v>
       </c>
       <c r="L58" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2992,22 +2988,22 @@
         <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
         <v>121</v>
       </c>
+      <c r="H59" t="s">
+        <v>120</v>
+      </c>
       <c r="I59" t="s">
-        <v>120</v>
-      </c>
-      <c r="J59" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K59" t="s">
+        <v>117</v>
       </c>
       <c r="L59" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3021,22 +3017,22 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" t="s">
-        <v>122</v>
-      </c>
-      <c r="G60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" t="s">
         <v>121</v>
       </c>
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
       <c r="I60" t="s">
-        <v>119</v>
-      </c>
-      <c r="J60" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K60" t="s">
+        <v>117</v>
       </c>
       <c r="L60" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3050,22 +3046,22 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
       </c>
+      <c r="H61" t="s">
+        <v>120</v>
+      </c>
       <c r="I61" t="s">
-        <v>120</v>
-      </c>
-      <c r="J61" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K61" t="s">
+        <v>117</v>
       </c>
       <c r="L61" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3079,22 +3075,22 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>134</v>
       </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
       <c r="I62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J62" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K62" t="s">
+        <v>135</v>
       </c>
       <c r="L62" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3108,22 +3104,22 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
       </c>
+      <c r="H63" t="s">
+        <v>120</v>
+      </c>
       <c r="I63" t="s">
-        <v>120</v>
-      </c>
-      <c r="J63" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K63" t="s">
+        <v>117</v>
       </c>
       <c r="L63" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,22 +3133,22 @@
         <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>134</v>
       </c>
+      <c r="H64" t="s">
+        <v>120</v>
+      </c>
       <c r="I64" t="s">
-        <v>120</v>
-      </c>
-      <c r="J64" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K64" t="s">
+        <v>135</v>
       </c>
       <c r="L64" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3166,22 +3162,22 @@
         <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
       </c>
+      <c r="H65" t="s">
+        <v>120</v>
+      </c>
       <c r="I65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J65" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K65" t="s">
+        <v>117</v>
       </c>
       <c r="L65" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3195,22 +3191,22 @@
         <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>134</v>
       </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
       <c r="I66" t="s">
-        <v>119</v>
-      </c>
-      <c r="J66" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K66" t="s">
+        <v>135</v>
       </c>
       <c r="L66" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3224,22 +3220,22 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
       </c>
+      <c r="H67" t="s">
+        <v>120</v>
+      </c>
       <c r="I67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J67" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K67" t="s">
+        <v>117</v>
       </c>
       <c r="L67" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3253,22 +3249,22 @@
         <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
         <v>134</v>
       </c>
+      <c r="H68" t="s">
+        <v>139</v>
+      </c>
       <c r="I68" t="s">
-        <v>139</v>
-      </c>
-      <c r="J68" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K68" t="s">
+        <v>135</v>
       </c>
       <c r="L68" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3282,22 +3278,22 @@
         <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" t="s">
-        <v>122</v>
-      </c>
-      <c r="G69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
         <v>121</v>
       </c>
+      <c r="H69" t="s">
+        <v>120</v>
+      </c>
       <c r="I69" t="s">
-        <v>120</v>
-      </c>
-      <c r="J69" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K69" t="s">
+        <v>117</v>
       </c>
       <c r="L69" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3311,22 +3307,22 @@
         <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
         <v>134</v>
       </c>
+      <c r="H70" t="s">
+        <v>119</v>
+      </c>
       <c r="I70" t="s">
-        <v>119</v>
-      </c>
-      <c r="J70" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K70" t="s">
+        <v>135</v>
       </c>
       <c r="L70" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3340,22 +3336,22 @@
         <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
-        <v>122</v>
-      </c>
-      <c r="G71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
         <v>121</v>
       </c>
+      <c r="H71" t="s">
+        <v>119</v>
+      </c>
       <c r="I71" t="s">
-        <v>119</v>
-      </c>
-      <c r="J71" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K71" t="s">
+        <v>117</v>
       </c>
       <c r="L71" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3369,22 +3365,22 @@
         <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" t="s">
         <v>134</v>
       </c>
+      <c r="H72" t="s">
+        <v>119</v>
+      </c>
       <c r="I72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J72" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K72" t="s">
+        <v>135</v>
       </c>
       <c r="L72" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3398,32 +3394,32 @@
         <v>32</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" t="s">
         <v>121</v>
       </c>
+      <c r="H73" t="s">
+        <v>123</v>
+      </c>
       <c r="I73" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" t="s">
-        <v>116</v>
+        <v>116</v>
+      </c>
+      <c r="K73" t="s">
+        <v>117</v>
       </c>
       <c r="L73" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T79">
     <sortCondition ref="C55"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="L1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+      <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5698,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2545A29-6325-479B-886F-2D91473C02F9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
